--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Happiest Minds Technologies Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Happiest Minds Technologies Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Quarterly Results of Happiest Minds Technologies(in Rs. Cr.)</t>
   </si>
@@ -134,6 +134,66 @@
   </si>
   <si>
     <t>Sep '24</t>
+  </si>
+  <si>
+    <t>171.50</t>
+  </si>
+  <si>
+    <t>186.35</t>
+  </si>
+  <si>
+    <t>177.02</t>
+  </si>
+  <si>
+    <t>182.84</t>
+  </si>
+  <si>
+    <t>192.84</t>
+  </si>
+  <si>
+    <t>208.26</t>
+  </si>
+  <si>
+    <t>230.41</t>
+  </si>
+  <si>
+    <t>250.43</t>
+  </si>
+  <si>
+    <t>265.88</t>
+  </si>
+  <si>
+    <t>286.82</t>
+  </si>
+  <si>
+    <t>307.81</t>
+  </si>
+  <si>
+    <t>337.65</t>
+  </si>
+  <si>
+    <t>344.76</t>
+  </si>
+  <si>
+    <t>342.33</t>
+  </si>
+  <si>
+    <t>357.05</t>
+  </si>
+  <si>
+    <t>370.01</t>
+  </si>
+  <si>
+    <t>370.58</t>
+  </si>
+  <si>
+    <t>375.24</t>
+  </si>
+  <si>
+    <t>372.40</t>
+  </si>
+  <si>
+    <t>374.65</t>
   </si>
 </sst>
 </file>
@@ -563,8 +623,8 @@
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2">
-        <v>171.5</v>
+      <c r="B2" t="s">
+        <v>40</v>
       </c>
       <c r="C2">
         <v>171.5</v>
@@ -597,7 +657,7 @@
         <v>21.51</v>
       </c>
       <c r="M2">
-        <v>14.46578947368421</v>
+        <v>14.47</v>
       </c>
       <c r="N2">
         <v>21.51</v>
@@ -625,8 +685,8 @@
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3">
-        <v>186.35</v>
+      <c r="B3" t="s">
+        <v>41</v>
       </c>
       <c r="C3">
         <v>186.35</v>
@@ -674,21 +734,21 @@
         <v>1.11</v>
       </c>
       <c r="R3">
-        <v>3.304210526315789</v>
+        <v>3.3</v>
       </c>
       <c r="S3">
         <v>1.11</v>
       </c>
       <c r="T3">
-        <v>3.304210526315789</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4">
-        <v>177.02</v>
+      <c r="B4" t="s">
+        <v>42</v>
       </c>
       <c r="C4">
         <v>177.02</v>
@@ -749,8 +809,8 @@
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5">
-        <v>182.84</v>
+      <c r="B5" t="s">
+        <v>43</v>
       </c>
       <c r="C5">
         <v>182.84</v>
@@ -811,8 +871,8 @@
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6">
-        <v>192.84</v>
+      <c r="B6" t="s">
+        <v>44</v>
       </c>
       <c r="C6">
         <v>192.84</v>
@@ -873,8 +933,8 @@
       <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B7">
-        <v>208.26</v>
+      <c r="B7" t="s">
+        <v>45</v>
       </c>
       <c r="C7">
         <v>208.26</v>
@@ -935,8 +995,8 @@
       <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B8">
-        <v>230.41</v>
+      <c r="B8" t="s">
+        <v>46</v>
       </c>
       <c r="C8">
         <v>230.41</v>
@@ -997,8 +1057,8 @@
       <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9">
-        <v>250.43</v>
+      <c r="B9" t="s">
+        <v>47</v>
       </c>
       <c r="C9">
         <v>250.43</v>
@@ -1059,8 +1119,8 @@
       <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B10">
-        <v>265.88</v>
+      <c r="B10" t="s">
+        <v>48</v>
       </c>
       <c r="C10">
         <v>265.88</v>
@@ -1121,8 +1181,8 @@
       <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B11">
-        <v>286.82</v>
+      <c r="B11" t="s">
+        <v>49</v>
       </c>
       <c r="C11">
         <v>286.82</v>
@@ -1183,8 +1243,8 @@
       <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B12">
-        <v>307.81</v>
+      <c r="B12" t="s">
+        <v>50</v>
       </c>
       <c r="C12">
         <v>307.81</v>
@@ -1245,8 +1305,8 @@
       <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="B13">
-        <v>337.65</v>
+      <c r="B13" t="s">
+        <v>51</v>
       </c>
       <c r="C13">
         <v>337.65</v>
@@ -1307,8 +1367,8 @@
       <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B14">
-        <v>344.76</v>
+      <c r="B14" t="s">
+        <v>52</v>
       </c>
       <c r="C14">
         <v>344.76</v>
@@ -1369,8 +1429,8 @@
       <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B15">
-        <v>342.33</v>
+      <c r="B15" t="s">
+        <v>53</v>
       </c>
       <c r="C15">
         <v>342.33</v>
@@ -1431,8 +1491,8 @@
       <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B16">
-        <v>357.05</v>
+      <c r="B16" t="s">
+        <v>54</v>
       </c>
       <c r="C16">
         <v>357.05</v>
@@ -1493,8 +1553,8 @@
       <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B17">
-        <v>370.01</v>
+      <c r="B17" t="s">
+        <v>55</v>
       </c>
       <c r="C17">
         <v>370.01</v>
@@ -1555,8 +1615,8 @@
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18">
-        <v>370.58</v>
+      <c r="B18" t="s">
+        <v>56</v>
       </c>
       <c r="C18">
         <v>370.58</v>
@@ -1617,8 +1677,8 @@
       <c r="A19" t="s">
         <v>37</v>
       </c>
-      <c r="B19">
-        <v>375.24</v>
+      <c r="B19" t="s">
+        <v>57</v>
       </c>
       <c r="C19">
         <v>375.24</v>
@@ -1679,8 +1739,8 @@
       <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="B20">
-        <v>372.4</v>
+      <c r="B20" t="s">
+        <v>58</v>
       </c>
       <c r="C20">
         <v>372.4</v>
@@ -1741,8 +1801,8 @@
       <c r="A21" t="s">
         <v>39</v>
       </c>
-      <c r="B21">
-        <v>374.65</v>
+      <c r="B21" t="s">
+        <v>59</v>
       </c>
       <c r="C21">
         <v>374.65</v>

--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Happiest Minds Technologies Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Happiest Minds Technologies Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
@@ -1,37 +1,225 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+  <si>
+    <t>Quarterly Results of Happiest Minds Technologies(in Rs. Cr.)</t>
+  </si>
+  <si>
+    <t>Net Sales/Income from operations</t>
+  </si>
+  <si>
+    <t>Total Income From Operations</t>
+  </si>
+  <si>
+    <t>Employees Cost</t>
+  </si>
+  <si>
+    <t>depreciat</t>
+  </si>
+  <si>
+    <t>Other Expenses</t>
+  </si>
+  <si>
+    <t>P/L Before Other Inc. , Int., Excpt. Items &amp; Tax</t>
+  </si>
+  <si>
+    <t>Other Income</t>
+  </si>
+  <si>
+    <t>P/L Before Int., Excpt. Items &amp; Tax</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>P/L Before Exceptional Items &amp; Tax</t>
+  </si>
+  <si>
+    <t>P/L Before Tax</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>P/L After Tax from Ordinary Activities</t>
+  </si>
+  <si>
+    <t>Net Profit/(Loss) For the Period</t>
+  </si>
+  <si>
+    <t>Equity Share Capital</t>
+  </si>
+  <si>
+    <t>Basic EPS</t>
+  </si>
+  <si>
+    <t>Diluted EPS</t>
+  </si>
+  <si>
+    <t>Basic EPS.</t>
+  </si>
+  <si>
+    <t>Diluted EPS.</t>
+  </si>
+  <si>
+    <t>Dec '19</t>
+  </si>
+  <si>
+    <t>Mar '20</t>
+  </si>
+  <si>
+    <t>Jun '20</t>
+  </si>
+  <si>
+    <t>Sep '20</t>
+  </si>
+  <si>
+    <t>Dec '20</t>
+  </si>
+  <si>
+    <t>Mar '21</t>
+  </si>
+  <si>
+    <t>Jun '21</t>
+  </si>
+  <si>
+    <t>Sep '21</t>
+  </si>
+  <si>
+    <t>Dec '21</t>
+  </si>
+  <si>
+    <t>Mar '22</t>
+  </si>
+  <si>
+    <t>Jun '22</t>
+  </si>
+  <si>
+    <t>Sep '22</t>
+  </si>
+  <si>
+    <t>Dec '22</t>
+  </si>
+  <si>
+    <t>Mar '23</t>
+  </si>
+  <si>
+    <t>Jun '23</t>
+  </si>
+  <si>
+    <t>Sep '23</t>
+  </si>
+  <si>
+    <t>Dec '23</t>
+  </si>
+  <si>
+    <t>Mar '24</t>
+  </si>
+  <si>
+    <t>Jun '24</t>
+  </si>
+  <si>
+    <t>Sep '24</t>
+  </si>
+  <si>
+    <t>171.50</t>
+  </si>
+  <si>
+    <t>186.35</t>
+  </si>
+  <si>
+    <t>177.02</t>
+  </si>
+  <si>
+    <t>182.84</t>
+  </si>
+  <si>
+    <t>192.84</t>
+  </si>
+  <si>
+    <t>208.26</t>
+  </si>
+  <si>
+    <t>230.41</t>
+  </si>
+  <si>
+    <t>250.43</t>
+  </si>
+  <si>
+    <t>265.88</t>
+  </si>
+  <si>
+    <t>286.82</t>
+  </si>
+  <si>
+    <t>307.81</t>
+  </si>
+  <si>
+    <t>337.65</t>
+  </si>
+  <si>
+    <t>344.76</t>
+  </si>
+  <si>
+    <t>342.33</t>
+  </si>
+  <si>
+    <t>357.05</t>
+  </si>
+  <si>
+    <t>370.01</t>
+  </si>
+  <si>
+    <t>370.58</t>
+  </si>
+  <si>
+    <t>375.24</t>
+  </si>
+  <si>
+    <t>372.40</t>
+  </si>
+  <si>
+    <t>374.65</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +234,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1302 +550,1316 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:20">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Quarterly Results of Happiest Minds Technologies(in Rs. Cr.)</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Net Sales/Income from operations</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Total Income From Operations</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Employees Cost</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>depreciat</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Other Expenses</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>P/L Before Other Inc. , Int., Excpt. Items &amp; Tax</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Other Income</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>P/L Before Int., Excpt. Items &amp; Tax</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Interest</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>P/L Before Exceptional Items &amp; Tax</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>P/L Before Tax</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>P/L After Tax from Ordinary Activities</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Net Profit/(Loss) For the Period</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Equity Share Capital</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Basic EPS</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Basic EPS.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Dec '19</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>171.50</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2">
         <v>171.5</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D2">
         <v>111.59</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E2">
         <v>5.09</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F2">
         <v>35.73</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G2">
         <v>19.09</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H2">
         <v>4.06</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I2">
         <v>23.15</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J2">
         <v>1.64</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K2">
         <v>21.51</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L2">
         <v>21.51</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M2">
+        <v>14.47</v>
+      </c>
+      <c r="N2">
         <v>21.51</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O2">
         <v>21.51</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P2">
         <v>6.17</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q2">
         <v>1.61</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R2">
+        <v>1.61</v>
+      </c>
+      <c r="S2">
         <v>6.97</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Mar '20</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>186.35</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="T2">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3">
         <v>186.35</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D3">
         <v>124.18</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E3">
         <v>5.11</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F3">
         <v>40.77</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G3">
         <v>16.29</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H3">
         <v>3.82</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I3">
         <v>20.11</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J3">
         <v>2.06</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K3">
         <v>18.05</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L3">
         <v>6.79</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M3">
+        <v>1.9</v>
+      </c>
+      <c r="N3">
         <v>4.89</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O3">
         <v>4.89</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P3">
         <v>8.789999999999999</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q3">
         <v>1.11</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R3">
+        <v>3.3</v>
+      </c>
+      <c r="S3">
         <v>1.11</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Jun '20</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>177.02</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="T3">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4">
         <v>177.02</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D4">
         <v>108.28</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E4">
         <v>5.13</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F4">
         <v>31.48</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G4">
         <v>32.13</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H4">
         <v>9.17</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I4">
         <v>41.3</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J4">
         <v>1.86</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K4">
         <v>39.44</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L4">
         <v>39.44</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M4">
+        <v>-9.34</v>
+      </c>
+      <c r="N4">
         <v>48.78</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O4">
         <v>48.78</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P4">
         <v>20.44</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q4">
         <v>3.62</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R4">
+        <v>3.62</v>
+      </c>
+      <c r="S4">
         <v>4.77</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Sep '20</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>182.84</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="T4">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5">
         <v>182.84</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D5">
         <v>110.89</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E5">
         <v>5.12</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F5">
         <v>27.63</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G5">
         <v>39.2</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H5">
         <v>5.07</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I5">
         <v>44.27</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J5">
         <v>1.6</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K5">
         <v>42.67</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L5">
         <v>42.67</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M5">
+        <v>8.59</v>
+      </c>
+      <c r="N5">
         <v>34.08</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O5">
         <v>34.08</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P5">
         <v>28.24</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q5">
         <v>2.51</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R5">
+        <v>2.42</v>
+      </c>
+      <c r="S5">
         <v>2.51</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Dec '20</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>192.84</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="T5">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6">
         <v>192.84</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D6">
         <v>110.29</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E6">
         <v>5.16</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F6">
         <v>31.31</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G6">
         <v>46.08</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H6">
         <v>8.449999999999999</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I6">
         <v>54.53</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J6">
         <v>1.26</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K6">
         <v>53.27</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L6">
         <v>53.27</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M6">
+        <v>11.12</v>
+      </c>
+      <c r="N6">
         <v>42.15</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O6">
         <v>42.15</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P6">
         <v>28.31</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q6">
         <v>2.98</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R6">
+        <v>2.89</v>
+      </c>
+      <c r="S6">
         <v>2.98</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Mar '21</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>208.26</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+      <c r="T6">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7">
         <v>208.26</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D7">
         <v>120.66</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E7">
         <v>5.22</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F7">
         <v>32.55</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G7">
         <v>49.83</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H7">
         <v>3.01</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I7">
         <v>52.84</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J7">
         <v>2.2</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K7">
         <v>50.64</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L7">
         <v>50.64</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M7">
+        <v>13.72</v>
+      </c>
+      <c r="N7">
         <v>36.92</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O7">
         <v>36.92</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P7">
         <v>28.37</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q7">
         <v>2.61</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R7">
+        <v>2.54</v>
+      </c>
+      <c r="S7">
         <v>2.61</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Jun '21</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>230.41</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+      <c r="T7">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8">
         <v>230.41</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D8">
         <v>137.28</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E8">
         <v>5.09</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F8">
         <v>39.41</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G8">
         <v>48.63</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H8">
         <v>9.27</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I8">
         <v>57.9</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J8">
         <v>1.63</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K8">
         <v>56.27</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L8">
         <v>50.18</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M8">
+        <v>15.17</v>
+      </c>
+      <c r="N8">
         <v>35.01</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O8">
         <v>35.01</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P8">
         <v>28.42</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q8">
         <v>2.46</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R8">
+        <v>2.4</v>
+      </c>
+      <c r="S8">
         <v>2.46</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Sep '21</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>250.43</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+      <c r="T8">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9">
         <v>250.43</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D9">
         <v>151.14</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E9">
         <v>6.19</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F9">
         <v>40.49</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G9">
         <v>52.61</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H9">
         <v>9.59</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I9">
         <v>62.2</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J9">
         <v>2.42</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K9">
         <v>59.78</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L9">
         <v>59.78</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M9">
+        <v>15.3</v>
+      </c>
+      <c r="N9">
         <v>44.48</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O9">
         <v>44.48</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P9">
         <v>28.46</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q9">
         <v>3.12</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R9">
+        <v>3.06</v>
+      </c>
+      <c r="S9">
         <v>3.12</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Dec '21</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>265.88</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+      <c r="T9">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10">
         <v>265.88</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D10">
         <v>158.76</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E10">
         <v>6.3</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F10">
         <v>46.8</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G10">
         <v>54.02</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H10">
         <v>8.43</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I10">
         <v>62.45</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J10">
         <v>2.4</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K10">
         <v>60.05</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L10">
         <v>60.05</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M10">
+        <v>15.27</v>
+      </c>
+      <c r="N10">
         <v>44.78</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O10">
         <v>44.78</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P10">
         <v>28.54</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Q10">
         <v>3.14</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="R10">
+        <v>3.09</v>
+      </c>
+      <c r="S10">
         <v>3.14</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Mar '22</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>286.82</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+      <c r="T10">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11">
         <v>286.82</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D11">
         <v>164.92</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E11">
         <v>6.65</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F11">
         <v>48.71</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G11">
         <v>66.54000000000001</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H11">
         <v>10.42</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I11">
         <v>76.95999999999999</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J11">
         <v>2.21</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K11">
         <v>74.75</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L11">
         <v>80.84</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M11">
+        <v>18.63</v>
+      </c>
+      <c r="N11">
         <v>62.21</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O11">
         <v>62.21</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P11">
         <v>28.54</v>
       </c>
-      <c r="P12" t="n">
+      <c r="Q11">
         <v>4.38</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="R11">
+        <v>4.28</v>
+      </c>
+      <c r="S11">
         <v>4.38</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Jun '22</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>307.81</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+      <c r="T11">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12">
         <v>307.81</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D12">
         <v>176.91</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E12">
         <v>7.1</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F12">
         <v>55.29</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G12">
         <v>68.51000000000001</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H12">
         <v>4.12</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I12">
         <v>72.63</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J12">
         <v>2.37</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K12">
         <v>70.26000000000001</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L12">
         <v>70.26000000000001</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M12">
+        <v>17.72</v>
+      </c>
+      <c r="N12">
         <v>52.54</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O12">
         <v>52.54</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P12">
         <v>28.58</v>
       </c>
-      <c r="P13" t="n">
+      <c r="Q12">
         <v>3.69</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="R12">
+        <v>3.62</v>
+      </c>
+      <c r="S12">
         <v>3.69</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Sep '22</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>337.65</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+      <c r="T12">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13">
         <v>337.65</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D13">
         <v>197.19</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E13">
         <v>7.39</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F13">
         <v>57.08</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G13">
         <v>75.98999999999999</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H13">
         <v>4.11</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I13">
         <v>80.09999999999999</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J13">
         <v>4.51</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K13">
         <v>75.59</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L13">
         <v>75.59</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M13">
+        <v>20.28</v>
+      </c>
+      <c r="N13">
         <v>55.31</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O13">
         <v>55.31</v>
       </c>
-      <c r="O14" t="n">
+      <c r="P13">
         <v>28.61</v>
       </c>
-      <c r="P14" t="n">
+      <c r="Q13">
         <v>3.86</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="R13">
+        <v>3.81</v>
+      </c>
+      <c r="S13">
         <v>3.86</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Dec '22</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>344.76</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="T13">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14">
         <v>344.76</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D14">
         <v>207.4</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E14">
         <v>7.52</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F14">
         <v>58.76</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G14">
         <v>71.08</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H14">
         <v>8.18</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I14">
         <v>79.26000000000001</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J14">
         <v>6.01</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K14">
         <v>73.25</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L14">
         <v>73.25</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M14">
+        <v>15.98</v>
+      </c>
+      <c r="N14">
         <v>57.27</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O14">
         <v>57.27</v>
       </c>
-      <c r="O15" t="n">
+      <c r="P14">
         <v>29.37</v>
       </c>
-      <c r="P15" t="n">
+      <c r="Q14">
         <v>4</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="R14">
+        <v>3.96</v>
+      </c>
+      <c r="S14">
         <v>4</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Mar '23</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>342.33</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="T14">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15">
         <v>342.33</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D15">
         <v>205.4</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E15">
         <v>7.95</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F15">
         <v>56.5</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G15">
         <v>72.48</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H15">
         <v>8.710000000000001</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I15">
         <v>81.19</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J15">
         <v>8.609999999999999</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K15">
         <v>72.58</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L15">
         <v>72.58</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M15">
+        <v>21.32</v>
+      </c>
+      <c r="N15">
         <v>51.26</v>
       </c>
-      <c r="N16" t="n">
+      <c r="O15">
         <v>51.26</v>
       </c>
-      <c r="O16" t="n">
+      <c r="P15">
         <v>28.66</v>
       </c>
-      <c r="P16" t="n">
+      <c r="Q15">
         <v>3.56</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="R15">
+        <v>3.54</v>
+      </c>
+      <c r="S15">
         <v>3.56</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Jun '23</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>357.05</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+      <c r="T15">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16">
         <v>357.05</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D16">
         <v>218.99</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E16">
         <v>7.55</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F16">
         <v>56.75</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G16">
         <v>73.76000000000001</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H16">
         <v>13.93</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I16">
         <v>87.69</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J16">
         <v>10.11</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K16">
         <v>77.58</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L16">
         <v>77.58</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M16">
+        <v>20.14</v>
+      </c>
+      <c r="N16">
         <v>57.44</v>
       </c>
-      <c r="N17" t="n">
+      <c r="O16">
         <v>57.44</v>
       </c>
-      <c r="O17" t="n">
+      <c r="P16">
         <v>28.72</v>
       </c>
-      <c r="P17" t="n">
+      <c r="Q16">
         <v>3.98</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="R16">
+        <v>3.96</v>
+      </c>
+      <c r="S16">
         <v>3.98</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Sep '23</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>370.01</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+      <c r="T16">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17">
         <v>370.01</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D17">
         <v>238.76</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E17">
         <v>8.68</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F17">
         <v>59.48</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G17">
         <v>63.09</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H17">
         <v>22.27</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I17">
         <v>85.36</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J17">
         <v>11.19</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K17">
         <v>74.17</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L17">
         <v>74.17</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M17">
+        <v>19.64</v>
+      </c>
+      <c r="N17">
         <v>54.53</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O17">
         <v>54.53</v>
       </c>
-      <c r="O18" t="n">
+      <c r="P17">
         <v>29.8</v>
       </c>
-      <c r="P18" t="n">
+      <c r="Q17">
         <v>3.66</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="R17">
+        <v>3.64</v>
+      </c>
+      <c r="S17">
         <v>3.66</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Dec '23</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>370.58</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+      <c r="T17">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18">
         <v>370.58</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D18">
         <v>244.24</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E18">
         <v>8.94</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F18">
         <v>58.12</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G18">
         <v>59.28</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H18">
         <v>49.59</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I18">
         <v>108.87</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J18">
         <v>10.64</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K18">
         <v>98.23</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L18">
         <v>99.3</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M18">
+        <v>19.47</v>
+      </c>
+      <c r="N18">
         <v>79.83</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O18">
         <v>79.83</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P18">
         <v>29.81</v>
       </c>
-      <c r="P19" t="n">
+      <c r="Q18">
         <v>5.32</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="R18">
+        <v>5.3</v>
+      </c>
+      <c r="S18">
         <v>5.32</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Mar '24</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>375.24</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
+      <c r="T18">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19">
         <v>375.24</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D19">
         <v>245.73</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E19">
         <v>9.130000000000001</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F19">
         <v>61.97</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G19">
         <v>58.41</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H19">
         <v>25.47</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I19">
         <v>83.88</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J19">
         <v>10.33</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K19">
         <v>73.55</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L19">
         <v>73.91</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M19">
+        <v>19.98</v>
+      </c>
+      <c r="N19">
         <v>53.93</v>
       </c>
-      <c r="N20" t="n">
+      <c r="O19">
         <v>53.93</v>
       </c>
-      <c r="O20" t="n">
+      <c r="P19">
         <v>29.87</v>
       </c>
-      <c r="P20" t="n">
+      <c r="Q19">
         <v>3.59</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="R19">
         <v>3.59</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Jun '24</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>372.40</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+      <c r="S19">
+        <v>3.59</v>
+      </c>
+      <c r="T19">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20">
         <v>372.4</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D20">
         <v>248.8</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E20">
         <v>9.06</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F20">
         <v>63.14</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G20">
         <v>51.4</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H20">
         <v>26.15</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I20">
         <v>77.55</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J20">
         <v>17.73</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K20">
         <v>59.82</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L20">
         <v>59.82</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M20">
+        <v>15.98</v>
+      </c>
+      <c r="N20">
         <v>43.84</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O20">
         <v>43.84</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P20">
         <v>29.91</v>
       </c>
-      <c r="P21" t="n">
+      <c r="Q20">
         <v>2.91</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="R20">
         <v>2.91</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Sep '24</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>374.65</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
+      <c r="S20">
+        <v>2.91</v>
+      </c>
+      <c r="T20">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21">
         <v>374.65</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D21">
         <v>253.9</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E21">
         <v>9.369999999999999</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F21">
         <v>60.62</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G21">
         <v>50.76</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H21">
         <v>26.41</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I21">
         <v>77.17</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J21">
         <v>24.93</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K21">
         <v>52.24</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L21">
         <v>52.24</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M21">
+        <v>13.98</v>
+      </c>
+      <c r="N21">
         <v>38.26</v>
       </c>
-      <c r="N22" t="n">
+      <c r="O21">
         <v>38.26</v>
       </c>
-      <c r="O22" t="n">
+      <c r="P21">
         <v>29.95</v>
       </c>
-      <c r="P22" t="n">
+      <c r="Q21">
         <v>2.54</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="R21">
         <v>2.54</v>
       </c>
+      <c r="S21">
+        <v>2.54</v>
+      </c>
+      <c r="T21">
+        <v>2.54</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>